--- a/工作時間表.xlsx
+++ b/工作時間表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>日期</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>圖表建置</t>
+  </si>
+  <si>
+    <t>收付款</t>
   </si>
 </sst>
 </file>
@@ -383,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -508,9 +511,42 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>42814</v>
+      </c>
       <c r="B11" s="1">
-        <f>SUM(B2:B10)</f>
-        <v>17.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>42815</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>42816</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <f>SUM(B2:B13)</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
